--- a/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7BA04B-C2B7-4AB3-A9D3-FCC985996408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B2971D6-6BE1-4D0A-94FA-E189EC5C4D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{844FA3CA-C2E8-4688-9F89-3A637AF8205F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20FA6118-E56B-4761-8E61-699492E4999D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="296">
   <si>
     <t>Hogares según si tienen dos o más personas por habitación en 2007 (Tasa respuesta: 73,0%)</t>
   </si>
@@ -86,841 +86,847 @@
     <t>12,76%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
   </si>
   <si>
     <t>13,67%</t>
   </si>
   <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2016 (Tasa respuesta: 75,87%)</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2023 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2015 (Tasa respuesta: 75,87%)</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2023 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>91,73%</t>
+    <t>94,0%</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D1A50F-9D83-41E3-BD1D-F07E35CFF6FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B09BB7-F93D-4920-B463-C035863EFC27}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2079,7 +2085,7 @@
         <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -2088,13 +2094,13 @@
         <v>75112</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,13 +2115,13 @@
         <v>486399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>696</v>
@@ -2124,13 +2130,13 @@
         <v>469282</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>1425</v>
@@ -2139,13 +2145,13 @@
         <v>955680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,7 +2207,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A8BD3A-ED29-4C28-BCFD-F66CF69307BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE14AC6A-C210-4553-B8FE-A8F93673C68D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2238,7 +2244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2482,13 +2488,13 @@
         <v>8810</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -2497,13 +2503,13 @@
         <v>10616</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -2512,13 +2518,13 @@
         <v>19425</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2539,13 @@
         <v>53280</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -2548,13 +2554,13 @@
         <v>44868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>141</v>
@@ -2563,13 +2569,13 @@
         <v>98149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2643,13 @@
         <v>33440</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -2652,13 +2658,13 @@
         <v>29605</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -2667,13 +2673,13 @@
         <v>63044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2694,13 @@
         <v>306353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7">
         <v>399</v>
@@ -2703,13 +2709,13 @@
         <v>275048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>840</v>
@@ -2718,13 +2724,13 @@
         <v>581402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2798,13 @@
         <v>7137</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2807,13 +2813,13 @@
         <v>8269</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -2822,13 +2828,13 @@
         <v>15406</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2849,13 @@
         <v>129761</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -2858,13 +2864,13 @@
         <v>108558</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>339</v>
@@ -2873,13 +2879,13 @@
         <v>238319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2953,13 @@
         <v>49386</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -2962,13 +2968,13 @@
         <v>48489</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -2977,13 +2983,13 @@
         <v>97876</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3004,13 @@
         <v>489395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>619</v>
@@ -3013,13 +3019,13 @@
         <v>428476</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>1320</v>
@@ -3028,13 +3034,13 @@
         <v>917870</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,7 +3096,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C46E3A-1E55-44FD-A011-7983BC7DA879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB822C93-5C99-4F7B-92F5-6217BDC99C90}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3127,7 +3133,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3371,13 +3377,13 @@
         <v>7935</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -3386,13 +3392,13 @@
         <v>7637</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3401,13 +3407,13 @@
         <v>15572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3428,13 @@
         <v>43302</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -3437,13 +3443,13 @@
         <v>33004</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>115</v>
@@ -3452,13 +3458,13 @@
         <v>76306</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,10 +3535,10 @@
         <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -3541,13 +3547,13 @@
         <v>27436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -3556,13 +3562,13 @@
         <v>53590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3586,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>184</v>
@@ -3613,7 +3619,7 @@
         <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,7 +3723,7 @@
         <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3738,13 @@
         <v>135629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>188</v>
@@ -3747,13 +3753,13 @@
         <v>126376</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>387</v>
@@ -3762,13 +3768,13 @@
         <v>262005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3842,13 @@
         <v>37745</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -3851,13 +3857,13 @@
         <v>44723</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -3866,13 +3872,13 @@
         <v>82468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,10 +3893,10 @@
         <v>532642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>217</v>
@@ -3899,7 +3905,7 @@
         <v>722</v>
       </c>
       <c r="I17" s="7">
-        <v>479962</v>
+        <v>479961</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>218</v>
@@ -3950,7 +3956,7 @@
         <v>789</v>
       </c>
       <c r="I18" s="7">
-        <v>524685</v>
+        <v>524684</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>32</v>
@@ -3979,7 +3985,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3999,7 +4005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62D24BE-7661-46DA-B159-AA07CDB00177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D4ECE9-74DE-4F08-B512-D18E2FDB7487}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4287,13 +4293,13 @@
         <v>4501</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -4302,13 +4308,13 @@
         <v>19561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4329,13 @@
         <v>43697</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -4338,13 +4344,13 @@
         <v>45808</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -4353,13 +4359,13 @@
         <v>89505</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4433,13 @@
         <v>37551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -4442,13 +4448,13 @@
         <v>27567</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -4457,13 +4463,13 @@
         <v>65118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4484,13 @@
         <v>454813</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
         <v>598</v>
@@ -4493,13 +4499,13 @@
         <v>418558</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
@@ -4508,13 +4514,13 @@
         <v>873372</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4588,13 @@
         <v>4980</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4597,13 +4603,13 @@
         <v>7116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4612,13 +4618,13 @@
         <v>12096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,16 +4636,16 @@
         <v>227</v>
       </c>
       <c r="D14" s="7">
-        <v>167914</v>
+        <v>167913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -4648,13 +4654,13 @@
         <v>142053</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>442</v>
@@ -4663,13 +4669,13 @@
         <v>309967</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,7 +4687,7 @@
         <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>172894</v>
+        <v>172893</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -4737,13 +4743,13 @@
         <v>57591</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -4752,13 +4758,13 @@
         <v>39184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>56</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -4767,13 +4773,13 @@
         <v>96775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,28 +4794,28 @@
         <v>666424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
         <v>874</v>
       </c>
       <c r="I17" s="7">
-        <v>607591</v>
+        <v>607590</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>1770</v>
@@ -4818,13 +4824,13 @@
         <v>1274014</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4857,7 @@
         <v>936</v>
       </c>
       <c r="I18" s="7">
-        <v>646775</v>
+        <v>646774</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>32</v>
@@ -4880,7 +4886,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B2971D6-6BE1-4D0A-94FA-E189EC5C4D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F37E41A-1BAB-44EE-B5BA-88AEF1548237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20FA6118-E56B-4761-8E61-699492E4999D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7F3BD1AB-8537-45D1-BAEE-511A072FB1F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Hogares según si tienen dos o más personas por habitación en 2007 (Tasa respuesta: 73,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,73 +68,67 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,88 +137,97 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>92,46%</t>
   </si>
   <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>4,29%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>92,76%</t>
@@ -233,700 +236,682 @@
     <t>87,88%</t>
   </si>
   <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>95,71%</t>
   </si>
   <si>
     <t>94,15%</t>
   </si>
   <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2016 (Tasa respuesta: 75,87%)</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2016 (Tasa respuesta: 75,87%)</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
     <t>Hogares según si tienen dos o más personas por habitación en 2023 (Tasa respuesta: 99,48%)</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B09BB7-F93D-4920-B463-C035863EFC27}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1119A3-EA74-429B-B0CA-F8A05B0526D7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1456,88 +1441,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7658</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6553</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14211</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="D5" s="7">
+        <v>48342</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="I5" s="7">
+        <v>44818</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="N5" s="7">
+        <v>93160</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,147 +1543,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56000</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I6" s="7">
+        <v>51371</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="N6" s="7">
+        <v>107371</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>6553</v>
+        <v>19027</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>7658</v>
+        <v>26655</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>14211</v>
+        <v>45682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>67</v>
+        <v>436</v>
       </c>
       <c r="D8" s="7">
-        <v>44818</v>
+        <v>290636</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>71</v>
+        <v>492</v>
       </c>
       <c r="I8" s="7">
-        <v>48342</v>
+        <v>326981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>138</v>
+        <v>928</v>
       </c>
       <c r="N8" s="7">
-        <v>93160</v>
+        <v>617617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,153 +1698,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="D9" s="7">
-        <v>51371</v>
+        <v>309663</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="I9" s="7">
-        <v>56000</v>
+        <v>353636</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>159</v>
+        <v>996</v>
       </c>
       <c r="N9" s="7">
-        <v>107371</v>
+        <v>663299</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>26655</v>
+        <v>6276</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>19027</v>
+        <v>8943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>45682</v>
+        <v>15220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>492</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7">
-        <v>326981</v>
+        <v>130305</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>436</v>
+        <v>170</v>
       </c>
       <c r="I11" s="7">
-        <v>290636</v>
+        <v>114599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>928</v>
+        <v>359</v>
       </c>
       <c r="N11" s="7">
-        <v>617617</v>
+        <v>244903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,153 +1853,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>532</v>
+        <v>198</v>
       </c>
       <c r="D12" s="7">
-        <v>353636</v>
+        <v>136581</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="I12" s="7">
-        <v>309663</v>
+        <v>123542</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>996</v>
+        <v>381</v>
       </c>
       <c r="N12" s="7">
-        <v>663299</v>
+        <v>260123</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>8943</v>
+        <v>32961</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>6276</v>
+        <v>42151</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="N13" s="7">
-        <v>15220</v>
+        <v>75112</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>170</v>
+        <v>696</v>
       </c>
       <c r="D14" s="7">
-        <v>114599</v>
+        <v>469282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>189</v>
+        <v>729</v>
       </c>
       <c r="I14" s="7">
-        <v>130305</v>
+        <v>486398</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>359</v>
+        <v>1425</v>
       </c>
       <c r="N14" s="7">
-        <v>244903</v>
+        <v>955680</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,216 +2008,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>183</v>
+        <v>744</v>
       </c>
       <c r="D15" s="7">
-        <v>123542</v>
+        <v>502243</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>198</v>
+        <v>792</v>
       </c>
       <c r="I15" s="7">
-        <v>136581</v>
+        <v>528549</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>381</v>
+        <v>1536</v>
       </c>
       <c r="N15" s="7">
-        <v>260123</v>
+        <v>1030792</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>63</v>
-      </c>
-      <c r="D16" s="7">
-        <v>42151</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="7">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32961</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="7">
-        <v>111</v>
-      </c>
-      <c r="N16" s="7">
-        <v>75112</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>729</v>
-      </c>
-      <c r="D17" s="7">
-        <v>486399</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="7">
-        <v>696</v>
-      </c>
-      <c r="I17" s="7">
-        <v>469282</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1425</v>
-      </c>
-      <c r="N17" s="7">
-        <v>955680</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>792</v>
-      </c>
-      <c r="D18" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>744</v>
-      </c>
-      <c r="I18" s="7">
-        <v>502243</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1536</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1030792</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2227,8 +2074,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE14AC6A-C210-4553-B8FE-A8F93673C68D}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87C4B4B-00E5-4B9B-B14D-DDEF04120273}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2244,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2345,88 +2192,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10616</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8810</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>19425</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44868</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="I5" s="7">
+        <v>53280</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="N5" s="7">
+        <v>98149</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,147 +2294,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55484</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I6" s="7">
+        <v>62090</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="N6" s="7">
+        <v>117574</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>8810</v>
+        <v>29605</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>10616</v>
+        <v>33440</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="N7" s="7">
-        <v>19425</v>
+        <v>63044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="D8" s="7">
-        <v>53280</v>
+        <v>275048</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>441</v>
       </c>
       <c r="I8" s="7">
-        <v>44868</v>
+        <v>306353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>141</v>
+        <v>840</v>
       </c>
       <c r="N8" s="7">
-        <v>98149</v>
+        <v>581402</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,153 +2449,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>89</v>
+        <v>441</v>
       </c>
       <c r="D9" s="7">
-        <v>62090</v>
+        <v>304653</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="I9" s="7">
-        <v>55484</v>
+        <v>339793</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>169</v>
+        <v>928</v>
       </c>
       <c r="N9" s="7">
-        <v>117574</v>
+        <v>644446</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>33440</v>
+        <v>8269</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>29605</v>
+        <v>7137</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>63044</v>
+        <v>15406</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>441</v>
+        <v>155</v>
       </c>
       <c r="D11" s="7">
-        <v>306353</v>
+        <v>108558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>399</v>
+        <v>184</v>
       </c>
       <c r="I11" s="7">
-        <v>275048</v>
+        <v>129761</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>840</v>
+        <v>339</v>
       </c>
       <c r="N11" s="7">
-        <v>581402</v>
+        <v>238319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,153 +2604,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>487</v>
+        <v>166</v>
       </c>
       <c r="D12" s="7">
-        <v>339793</v>
+        <v>116827</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>441</v>
+        <v>193</v>
       </c>
       <c r="I12" s="7">
-        <v>304653</v>
+        <v>136898</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>928</v>
+        <v>359</v>
       </c>
       <c r="N12" s="7">
-        <v>644446</v>
+        <v>253725</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>7137</v>
+        <v>48489</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="I13" s="7">
-        <v>8269</v>
+        <v>49386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="N13" s="7">
-        <v>15406</v>
+        <v>97876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>184</v>
+        <v>619</v>
       </c>
       <c r="D14" s="7">
-        <v>129761</v>
+        <v>428476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
+        <v>701</v>
+      </c>
+      <c r="I14" s="7">
+        <v>489395</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="7">
-        <v>108558</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7">
-        <v>339</v>
+        <v>1320</v>
       </c>
       <c r="N14" s="7">
-        <v>238319</v>
+        <v>917870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,216 +2759,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>193</v>
+        <v>687</v>
       </c>
       <c r="D15" s="7">
-        <v>136898</v>
+        <v>476965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>166</v>
+        <v>769</v>
       </c>
       <c r="I15" s="7">
-        <v>116827</v>
+        <v>538781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>359</v>
+        <v>1456</v>
       </c>
       <c r="N15" s="7">
-        <v>253725</v>
+        <v>1015746</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>68</v>
-      </c>
-      <c r="D16" s="7">
-        <v>49386</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="7">
-        <v>68</v>
-      </c>
-      <c r="I16" s="7">
-        <v>48489</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M16" s="7">
-        <v>136</v>
-      </c>
-      <c r="N16" s="7">
-        <v>97876</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>701</v>
-      </c>
-      <c r="D17" s="7">
-        <v>489395</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="7">
-        <v>619</v>
-      </c>
-      <c r="I17" s="7">
-        <v>428476</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1320</v>
-      </c>
-      <c r="N17" s="7">
-        <v>917870</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>769</v>
-      </c>
-      <c r="D18" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>687</v>
-      </c>
-      <c r="I18" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3116,8 +2825,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB822C93-5C99-4F7B-92F5-6217BDC99C90}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA413538-6E40-4479-9D23-3383BF0C34F5}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3133,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3234,88 +2943,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7637</v>
+      </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>7935</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="N4" s="7">
+        <v>15572</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D5" s="7">
+        <v>33004</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="I5" s="7">
+        <v>43302</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="N5" s="7">
+        <v>76306</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,147 +3045,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40641</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="I6" s="7">
+        <v>51237</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="N6" s="7">
+        <v>91878</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>7935</v>
+        <v>27436</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>7637</v>
+        <v>26155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>15572</v>
+        <v>53590</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>64</v>
+        <v>483</v>
       </c>
       <c r="D8" s="7">
-        <v>43302</v>
+        <v>320580</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="7">
+        <v>508</v>
+      </c>
+      <c r="I8" s="7">
+        <v>353711</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="7">
-        <v>51</v>
-      </c>
-      <c r="I8" s="7">
-        <v>33004</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
-        <v>115</v>
+        <v>991</v>
       </c>
       <c r="N8" s="7">
-        <v>76306</v>
+        <v>674292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,153 +3200,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>75</v>
+        <v>524</v>
       </c>
       <c r="D9" s="7">
-        <v>51237</v>
+        <v>348016</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>63</v>
+        <v>544</v>
       </c>
       <c r="I9" s="7">
-        <v>40641</v>
+        <v>379866</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>138</v>
+        <v>1068</v>
       </c>
       <c r="N9" s="7">
-        <v>91878</v>
+        <v>727882</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>26155</v>
+        <v>9651</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>27436</v>
+        <v>3655</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>53590</v>
+        <v>13306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>508</v>
+        <v>188</v>
       </c>
       <c r="D11" s="7">
-        <v>353711</v>
+        <v>126376</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
-        <v>483</v>
+        <v>199</v>
       </c>
       <c r="I11" s="7">
-        <v>320580</v>
+        <v>135629</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
-        <v>991</v>
+        <v>387</v>
       </c>
       <c r="N11" s="7">
-        <v>674292</v>
+        <v>262005</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,153 +3355,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>544</v>
+        <v>202</v>
       </c>
       <c r="D12" s="7">
-        <v>379866</v>
+        <v>136027</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>524</v>
+        <v>205</v>
       </c>
       <c r="I12" s="7">
-        <v>348016</v>
+        <v>139284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1068</v>
+        <v>407</v>
       </c>
       <c r="N12" s="7">
-        <v>727882</v>
+        <v>275311</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>3655</v>
+        <v>44723</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>9651</v>
+        <v>37745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>13306</v>
+        <v>82468</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>199</v>
+        <v>722</v>
       </c>
       <c r="D14" s="7">
-        <v>135629</v>
+        <v>479962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
-        <v>188</v>
+        <v>771</v>
       </c>
       <c r="I14" s="7">
-        <v>126376</v>
+        <v>532642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>387</v>
+        <v>1493</v>
       </c>
       <c r="N14" s="7">
-        <v>262005</v>
+        <v>1012604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,216 +3510,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>205</v>
+        <v>789</v>
       </c>
       <c r="D15" s="7">
-        <v>139284</v>
+        <v>524685</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>202</v>
+        <v>824</v>
       </c>
       <c r="I15" s="7">
-        <v>136027</v>
+        <v>570387</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>407</v>
+        <v>1613</v>
       </c>
       <c r="N15" s="7">
-        <v>275311</v>
+        <v>1095072</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>53</v>
-      </c>
-      <c r="D16" s="7">
-        <v>37745</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="7">
-        <v>67</v>
-      </c>
-      <c r="I16" s="7">
-        <v>44723</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M16" s="7">
-        <v>120</v>
-      </c>
-      <c r="N16" s="7">
-        <v>82468</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>771</v>
-      </c>
-      <c r="D17" s="7">
-        <v>532642</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H17" s="7">
-        <v>722</v>
-      </c>
-      <c r="I17" s="7">
-        <v>479961</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1493</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1012604</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>824</v>
-      </c>
-      <c r="D18" s="7">
-        <v>570387</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>789</v>
-      </c>
-      <c r="I18" s="7">
-        <v>524684</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1613</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1095072</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4005,8 +3576,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D4ECE9-74DE-4F08-B512-D18E2FDB7487}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB3A9C3-1EB9-460D-A9DE-6497352CBAB7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4022,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4123,96 +3694,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4442</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>16642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>21084</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="D5" s="7">
+        <v>49436</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>45362</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>94798</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,151 +3796,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53878</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>115882</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>15060</v>
+        <v>27736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>4501</v>
+        <v>39948</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="N7" s="7">
-        <v>19561</v>
+        <v>67684</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>62</v>
+        <v>598</v>
       </c>
       <c r="D8" s="7">
-        <v>43697</v>
+        <v>429863</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>607</v>
       </c>
       <c r="I8" s="7">
-        <v>45808</v>
+        <v>476671</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
-        <v>122</v>
+        <v>1205</v>
       </c>
       <c r="N8" s="7">
-        <v>89505</v>
+        <v>906534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,153 +3951,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>640</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>457599</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>68</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>50309</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>1296</v>
       </c>
       <c r="N9" s="7">
-        <v>109066</v>
+        <v>974218</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>37551</v>
+        <v>7259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>27567</v>
+        <v>5496</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>65118</v>
+        <v>12756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>607</v>
+        <v>215</v>
       </c>
       <c r="D11" s="7">
-        <v>454813</v>
+        <v>140136</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
-        <v>598</v>
+        <v>227</v>
       </c>
       <c r="I11" s="7">
-        <v>418558</v>
+        <v>176169</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
-        <v>1205</v>
+        <v>442</v>
       </c>
       <c r="N11" s="7">
-        <v>873372</v>
+        <v>316304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,153 +4106,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>147395</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>640</v>
+        <v>235</v>
       </c>
       <c r="I12" s="7">
-        <v>446125</v>
+        <v>181665</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1296</v>
+        <v>462</v>
       </c>
       <c r="N12" s="7">
-        <v>938490</v>
+        <v>329060</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>4980</v>
+        <v>39438</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="7">
+        <v>78</v>
+      </c>
+      <c r="I13" s="7">
+        <v>62086</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M13" s="7">
+        <v>140</v>
+      </c>
+      <c r="N13" s="7">
+        <v>101524</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7116</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M13" s="7">
-        <v>20</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12096</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>227</v>
+        <v>873</v>
       </c>
       <c r="D14" s="7">
-        <v>167913</v>
+        <v>619434</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
-        <v>215</v>
+        <v>896</v>
       </c>
       <c r="I14" s="7">
-        <v>142053</v>
+        <v>698202</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
-        <v>442</v>
+        <v>1769</v>
       </c>
       <c r="N14" s="7">
-        <v>309967</v>
+        <v>1317636</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,216 +4261,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>235</v>
+        <v>935</v>
       </c>
       <c r="D15" s="7">
-        <v>172893</v>
+        <v>658872</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>227</v>
+        <v>974</v>
       </c>
       <c r="I15" s="7">
-        <v>149169</v>
+        <v>760288</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>462</v>
+        <v>1909</v>
       </c>
       <c r="N15" s="7">
-        <v>322063</v>
+        <v>1419160</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>78</v>
-      </c>
-      <c r="D16" s="7">
-        <v>57591</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H16" s="7">
-        <v>62</v>
-      </c>
-      <c r="I16" s="7">
-        <v>39184</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="M16" s="7">
-        <v>140</v>
-      </c>
-      <c r="N16" s="7">
-        <v>96775</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>896</v>
-      </c>
-      <c r="D17" s="7">
-        <v>666424</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="7">
-        <v>874</v>
-      </c>
-      <c r="I17" s="7">
-        <v>607590</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1770</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1274014</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>974</v>
-      </c>
-      <c r="D18" s="7">
-        <v>724015</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>936</v>
-      </c>
-      <c r="I18" s="7">
-        <v>646774</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1910</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1370789</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
